--- a/StructureDefinition-intensive-care-treatment-duration.xlsx
+++ b/StructureDefinition-intensive-care-treatment-duration.xlsx
@@ -6135,7 +6135,7 @@
         <v>89</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>79</v>
@@ -6236,7 +6236,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
         <v>336</v>
       </c>
@@ -6254,7 +6254,7 @@
         <v>89</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>79</v>
